--- a/เช็คชื่อ/V1.1.1 [2021-06-28] เอกสารเช็คชื่อ.xlsx
+++ b/เช็คชื่อ/V1.1.1 [2021-06-28] เอกสารเช็คชื่อ.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Windows10\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5439790-2B51-4280-9D8F-07729EBF5985}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{529BCBCE-1D7D-465A-ADA9-383879C7C5F0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="20">
   <si>
     <t>ทีม 4</t>
   </si>
@@ -433,10 +433,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E37"/>
+  <dimension ref="A1:E49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -983,7 +983,167 @@
         <v>1</v>
       </c>
     </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" s="1">
+        <v>44377</v>
+      </c>
+      <c r="B38" s="6">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>1</v>
+      </c>
+      <c r="B39" t="s">
+        <v>6</v>
+      </c>
+      <c r="C39" s="2">
+        <v>0.77638888888888891</v>
+      </c>
+      <c r="E39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>2</v>
+      </c>
+      <c r="B40" t="s">
+        <v>9</v>
+      </c>
+      <c r="C40" s="2">
+        <v>0.78819444444444453</v>
+      </c>
+      <c r="E40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>3</v>
+      </c>
+      <c r="B41" t="s">
+        <v>11</v>
+      </c>
+      <c r="C41" s="2">
+        <v>0.7909722222222223</v>
+      </c>
+      <c r="E41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>4</v>
+      </c>
+      <c r="B42" t="s">
+        <v>12</v>
+      </c>
+      <c r="C42" s="2">
+        <v>0.78888888888888886</v>
+      </c>
+      <c r="E42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B43" s="6">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="C43" s="7"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="7"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>1</v>
+      </c>
+      <c r="B44" t="s">
+        <v>7</v>
+      </c>
+      <c r="C44" s="2">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="E44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>2</v>
+      </c>
+      <c r="B45" t="s">
+        <v>8</v>
+      </c>
+      <c r="C45" s="2">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="E45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>3</v>
+      </c>
+      <c r="B46" t="s">
+        <v>10</v>
+      </c>
+      <c r="C46" s="2">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="E46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>4</v>
+      </c>
+      <c r="B47" t="s">
+        <v>13</v>
+      </c>
+      <c r="C47" s="2">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="E47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>5</v>
+      </c>
+      <c r="B48" t="s">
+        <v>14</v>
+      </c>
+      <c r="C48" s="2">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="E48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>6</v>
+      </c>
+      <c r="B49" t="s">
+        <v>15</v>
+      </c>
+      <c r="C49" s="2">
+        <v>0.8340277777777777</v>
+      </c>
+      <c r="E49">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>